--- a/apis.xlsx
+++ b/apis.xlsx
@@ -1749,24 +1749,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1779,8 +1780,11 @@
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1793,8 +1797,12 @@
       <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>E2+1</f>
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1807,8 +1815,12 @@
       <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" ref="E4:E23" si="0">E3+1</f>
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1821,8 +1833,12 @@
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1835,8 +1851,12 @@
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1849,8 +1869,12 @@
       <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1863,8 +1887,12 @@
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1877,8 +1905,12 @@
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1891,8 +1923,12 @@
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1905,8 +1941,12 @@
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1919,8 +1959,12 @@
       <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1933,8 +1977,12 @@
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1947,8 +1995,12 @@
       <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1961,8 +2013,12 @@
       <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1975,8 +2031,12 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1989,8 +2049,12 @@
       <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2003,8 +2067,12 @@
       <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2017,8 +2085,12 @@
       <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2031,8 +2103,12 @@
       <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2045,8 +2121,12 @@
       <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2059,8 +2139,12 @@
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2072,6 +2156,10 @@
       </c>
       <c r="D23" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8101</v>
       </c>
     </row>
   </sheetData>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>ramon</t>
+  </si>
+  <si>
+    <t>adsoft</t>
   </si>
 </sst>
 </file>
@@ -1749,17 +1752,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2160,6 +2164,14 @@
       <c r="E23">
         <f t="shared" si="0"/>
         <v>8101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>8102</v>
       </c>
     </row>
   </sheetData>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -223,13 +223,79 @@
   </si>
   <si>
     <t>adsoft</t>
+  </si>
+  <si>
+    <t>https://github.com/JCrespo1399/tareas</t>
+  </si>
+  <si>
+    <t>https://github.com/AlanAlbertMn/adminSoft</t>
+  </si>
+  <si>
+    <t>docker hello</t>
+  </si>
+  <si>
+    <t>docker hub</t>
+  </si>
+  <si>
+    <t>https://github.com/Everardo-BD/ADPIS_ITESM</t>
+  </si>
+  <si>
+    <t>https://github.com/Darfeikus/proyectosingenieriasw</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioDiF/apis-tareas.git</t>
+  </si>
+  <si>
+    <t>https://github.com/MiguelSilvaR/apis_tareas.git</t>
+  </si>
+  <si>
+    <t>https://github.com/NoManchesam/Tareas-A01730719.git</t>
+  </si>
+  <si>
+    <t>https://github.com/JavierPinedoC/AS_JavierPC_HW.git</t>
+  </si>
+  <si>
+    <t>docker - mapa</t>
+  </si>
+  <si>
+    <t>https://github.com/Zambrix20/repAdminProySoft.git</t>
+  </si>
+  <si>
+    <t>https://github.com/alaricomv/Alarico-Admin_Software.git</t>
+  </si>
+  <si>
+    <t>https://github.com/DanielCarrami/admin2.git</t>
+  </si>
+  <si>
+    <t>https://github.com/RamonVM/TareasAdmin2020.git</t>
+  </si>
+  <si>
+    <t>https://github.com/blackhawk42/administracion.git</t>
+  </si>
+  <si>
+    <t>https://github.com/OscarCanongo/administracionProyectos.git</t>
+  </si>
+  <si>
+    <t>https://github.com/AldoFA22/dockerlab2.git</t>
+  </si>
+  <si>
+    <t>https://github.com/jaorsa/A01329978--Administraci-n-de-Proyectos-de-Ingenier-a-de-Software.git</t>
+  </si>
+  <si>
+    <t>https://github.com/luisedgarflores/AdministracionProyectoLF.git</t>
+  </si>
+  <si>
+    <t>https://github.com/PatoFb/apisSergio.git</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +312,22 @@
       <sz val="11"/>
       <color rgb="FF0C1C8D"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,15 +347,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1752,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1764,14 +1851,24 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="D1" t="s">
         <v>44</v>
       </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1787,8 +1884,20 @@
       <c r="E2">
         <v>8080</v>
       </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1805,8 +1914,20 @@
         <f>E2+1</f>
         <v>8081</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1823,8 +1944,20 @@
         <f t="shared" ref="E4:E23" si="0">E3+1</f>
         <v>8082</v>
       </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1841,8 +1974,20 @@
         <f t="shared" si="0"/>
         <v>8083</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1859,8 +2004,20 @@
         <f t="shared" si="0"/>
         <v>8084</v>
       </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1877,8 +2034,20 @@
         <f t="shared" si="0"/>
         <v>8085</v>
       </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1895,8 +2064,20 @@
         <f t="shared" si="0"/>
         <v>8086</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1913,8 +2094,20 @@
         <f t="shared" si="0"/>
         <v>8087</v>
       </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1931,8 +2124,20 @@
         <f t="shared" si="0"/>
         <v>8088</v>
       </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1949,8 +2154,20 @@
         <f t="shared" si="0"/>
         <v>8089</v>
       </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1967,8 +2184,20 @@
         <f t="shared" si="0"/>
         <v>8090</v>
       </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1985,8 +2214,20 @@
         <f t="shared" si="0"/>
         <v>8091</v>
       </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2003,8 +2244,20 @@
         <f t="shared" si="0"/>
         <v>8092</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2021,8 +2274,20 @@
         <f t="shared" si="0"/>
         <v>8093</v>
       </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2039,8 +2304,20 @@
         <f t="shared" si="0"/>
         <v>8094</v>
       </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2057,8 +2334,20 @@
         <f t="shared" si="0"/>
         <v>8095</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2075,8 +2364,20 @@
         <f t="shared" si="0"/>
         <v>8096</v>
       </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2093,8 +2394,20 @@
         <f t="shared" si="0"/>
         <v>8097</v>
       </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2111,8 +2424,20 @@
         <f t="shared" si="0"/>
         <v>8098</v>
       </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2129,8 +2454,20 @@
         <f t="shared" si="0"/>
         <v>8099</v>
       </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2147,8 +2484,20 @@
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2165,8 +2514,20 @@
         <f t="shared" si="0"/>
         <v>8101</v>
       </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2175,8 +2536,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -347,9 +350,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -358,9 +367,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1842,7 +1857,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1893,8 +1908,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1954,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2344,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2541,6 +2556,7 @@
     <hyperlink ref="F8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -270,9 +270,6 @@
     <t>https://github.com/RamonVM/TareasAdmin2020.git</t>
   </si>
   <si>
-    <t>https://github.com/blackhawk42/administracion.git</t>
-  </si>
-  <si>
     <t>https://github.com/OscarCanongo/administracionProyectos.git</t>
   </si>
   <si>
@@ -291,14 +288,113 @@
     <t>-</t>
   </si>
   <si>
-    <t>x</t>
+    <t>ajedrez</t>
+  </si>
+  <si>
+    <t>oso</t>
+  </si>
+  <si>
+    <t>deportes</t>
+  </si>
+  <si>
+    <t>visionyalcance</t>
+  </si>
+  <si>
+    <t>riesgos</t>
+  </si>
+  <si>
+    <t>comunicacion</t>
+  </si>
+  <si>
+    <t>arquitectura</t>
+  </si>
+  <si>
+    <t>git branching</t>
+  </si>
+  <si>
+    <t>kanban-aut</t>
+  </si>
+  <si>
+    <t>issue bien def</t>
+  </si>
+  <si>
+    <t>front (test-prod)</t>
+  </si>
+  <si>
+    <t>prototipo</t>
+  </si>
+  <si>
+    <t>ci-tdd</t>
+  </si>
+  <si>
+    <t>pruebas</t>
+  </si>
+  <si>
+    <t>git granch</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>tareas-20</t>
+  </si>
+  <si>
+    <t>proyecto</t>
+  </si>
+  <si>
+    <t>http://189.193.188.135/index.html</t>
+  </si>
+  <si>
+    <t>http://104.198.244.0:8088/</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>http://104.198.244.0:8100</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>http://104.198.244.0:8083</t>
+  </si>
+  <si>
+    <t>https://github.com/tspt89/AdminProyectos</t>
+  </si>
+  <si>
+    <t>https://github.com/feeercholik/tareasAdmin.git</t>
+  </si>
+  <si>
+    <t>http://104.198.244.0:8096</t>
+  </si>
+  <si>
+    <t>http://189.165.218.140:8082/</t>
+  </si>
+  <si>
+    <t>http://34.121.15.101</t>
+  </si>
+  <si>
+    <t>https://github.com/A01172971/administracion_projecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,13 +428,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,14 +488,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="33">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -376,6 +532,30 @@
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,13 +567,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -439,13 +619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -491,13 +671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -543,13 +723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -595,13 +775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -647,13 +827,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -699,13 +879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -751,13 +931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -803,13 +983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -855,13 +1035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -907,13 +1087,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -959,13 +1139,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1011,13 +1191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1063,13 +1243,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1115,13 +1295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1167,13 +1347,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1219,13 +1399,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1271,13 +1451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1323,13 +1503,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1375,13 +1555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1427,13 +1607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1479,13 +1659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1854,36 +2034,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="D1" t="s">
+    <row r="1" spans="1:28">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
+      <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1893,26 +2144,85 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8080</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <f>SUM(P2:Z2)*0.8</f>
+        <v>68</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>AA2+O2</f>
+        <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1922,27 +2232,86 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3">
-        <f>E2+1</f>
+      <c r="F3">
+        <f>F2+1</f>
         <v>8081</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA23" si="0">SUM(P3:Z3)*0.8</f>
+        <v>80</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ref="AB3:AB23" si="1">AA3+O3</f>
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1952,27 +2321,80 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E23" si="0">E3+1</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="2">F3+1</f>
         <v>8082</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1982,27 +2404,86 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>8083</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5" s="6">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="0"/>
-        <v>8083</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2012,27 +2493,86 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>8084</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="0"/>
-        <v>8084</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2042,27 +2582,80 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>8085</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" s="6">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7" s="6">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="0"/>
-        <v>8085</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2072,27 +2665,82 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>8086</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="0"/>
-        <v>8086</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2102,27 +2750,80 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>8087</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="0"/>
-        <v>8087</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2132,27 +2833,80 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>8088</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="0"/>
-        <v>8088</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2162,27 +2916,80 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>8089</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="0"/>
-        <v>8089</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2192,27 +2999,80 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <f t="shared" si="2"/>
         <v>8090</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <f>SUM(P12:Z12)*0.8</f>
+        <v>68</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2222,27 +3082,80 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f t="shared" si="2"/>
         <v>8091</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <f>SUM(P13:Z13)*0.8</f>
+        <v>68</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2252,27 +3165,73 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>8092</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>5</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="7">
+        <v>10</v>
+      </c>
+      <c r="T14" s="5">
+        <v>10</v>
+      </c>
+      <c r="U14" s="5">
+        <v>10</v>
+      </c>
+      <c r="V14" s="5">
+        <v>10</v>
+      </c>
+      <c r="W14" s="7">
+        <v>10</v>
+      </c>
+      <c r="X14" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="0"/>
-        <v>8092</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2282,27 +3241,80 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>8093</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5">
+        <v>5</v>
+      </c>
+      <c r="S15" s="7">
+        <v>10</v>
+      </c>
+      <c r="T15" s="5">
+        <v>10</v>
+      </c>
+      <c r="U15" s="5">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5">
+        <v>10</v>
+      </c>
+      <c r="W15" s="7">
+        <v>10</v>
+      </c>
+      <c r="X15" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="0"/>
-        <v>8093</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2312,27 +3324,80 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>8094</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5</v>
+      </c>
+      <c r="R16" s="5">
+        <v>5</v>
+      </c>
+      <c r="S16" s="5">
+        <v>10</v>
+      </c>
+      <c r="T16" s="5">
+        <v>10</v>
+      </c>
+      <c r="U16" s="5">
+        <v>10</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10</v>
+      </c>
+      <c r="W16" s="5">
+        <v>10</v>
+      </c>
+      <c r="X16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="0"/>
-        <v>8094</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2342,27 +3407,82 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>8095</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>5</v>
+      </c>
+      <c r="R17" s="5">
+        <v>5</v>
+      </c>
+      <c r="S17" s="5">
+        <v>10</v>
+      </c>
+      <c r="T17" s="5">
+        <v>10</v>
+      </c>
+      <c r="U17" s="5">
+        <v>10</v>
+      </c>
+      <c r="V17" s="5">
+        <v>10</v>
+      </c>
+      <c r="W17" s="5">
+        <v>10</v>
+      </c>
+      <c r="X17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="0"/>
-        <v>8095</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2372,27 +3492,80 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>8096</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>5</v>
+      </c>
+      <c r="R18" s="5">
+        <v>5</v>
+      </c>
+      <c r="S18" s="5">
+        <v>10</v>
+      </c>
+      <c r="T18" s="5">
+        <v>10</v>
+      </c>
+      <c r="U18" s="5">
+        <v>10</v>
+      </c>
+      <c r="V18" s="5">
+        <v>10</v>
+      </c>
+      <c r="W18" s="5">
+        <v>10</v>
+      </c>
+      <c r="X18" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="0"/>
-        <v>8096</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB18" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2402,27 +3575,80 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>8097</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>5</v>
+      </c>
+      <c r="R19" s="5">
+        <v>5</v>
+      </c>
+      <c r="S19" s="7">
+        <v>10</v>
+      </c>
+      <c r="T19" s="5">
+        <v>10</v>
+      </c>
+      <c r="U19" s="5">
+        <v>10</v>
+      </c>
+      <c r="V19" s="5">
+        <v>10</v>
+      </c>
+      <c r="W19" s="7">
+        <v>10</v>
+      </c>
+      <c r="X19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="0"/>
-        <v>8097</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2432,27 +3658,80 @@
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>8098</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5</v>
+      </c>
+      <c r="R20" s="5">
+        <v>5</v>
+      </c>
+      <c r="S20" s="7">
+        <v>10</v>
+      </c>
+      <c r="T20" s="5">
+        <v>10</v>
+      </c>
+      <c r="U20" s="5">
+        <v>10</v>
+      </c>
+      <c r="V20" s="5">
+        <v>10</v>
+      </c>
+      <c r="W20" s="7">
+        <v>10</v>
+      </c>
+      <c r="X20" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="0"/>
-        <v>8098</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2462,27 +3741,80 @@
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>8099</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>5</v>
+      </c>
+      <c r="R21" s="5">
+        <v>5</v>
+      </c>
+      <c r="S21" s="7">
+        <v>10</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10</v>
+      </c>
+      <c r="U21" s="5">
+        <v>10</v>
+      </c>
+      <c r="V21" s="5">
+        <v>10</v>
+      </c>
+      <c r="W21" s="7">
+        <v>10</v>
+      </c>
+      <c r="X21" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="0"/>
-        <v>8099</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2492,27 +3824,79 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="F22">
+        <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>16</v>
+      </c>
+      <c r="P22" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>5</v>
+      </c>
+      <c r="R22" s="5">
+        <v>5</v>
+      </c>
+      <c r="S22" s="5">
+        <v>5</v>
+      </c>
+      <c r="T22" s="5">
+        <v>10</v>
+      </c>
+      <c r="U22" s="5">
+        <v>10</v>
+      </c>
+      <c r="V22" s="5">
+        <v>10</v>
+      </c>
+      <c r="W22" s="5">
+        <v>5</v>
+      </c>
+      <c r="X22" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>68</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2522,42 +3906,97 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>8101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>5</v>
+      </c>
+      <c r="R23" s="5">
+        <v>5</v>
+      </c>
+      <c r="S23" s="5">
+        <v>10</v>
+      </c>
+      <c r="T23" s="5">
+        <v>10</v>
+      </c>
+      <c r="U23" s="5">
+        <v>10</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5">
+        <v>10</v>
+      </c>
+      <c r="X23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="0"/>
-        <v>8101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:28">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2057,7 +2057,7 @@
     <col min="15" max="16" width="6" customWidth="1"/>
     <col min="17" max="17" width="3.83203125" customWidth="1"/>
     <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.83203125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="10.1640625" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>10</v>
@@ -2215,11 +2215,11 @@
       </c>
       <c r="AA2">
         <f>SUM(P2:Z2)*0.8</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="4">
         <f>AA2+O2</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3040,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -3065,11 +3065,11 @@
       </c>
       <c r="AA12">
         <f>SUM(P12:Z12)*0.8</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AB12" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3123,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13">
         <v>10</v>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="AA13">
         <f>SUM(P13:Z13)*0.8</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -3850,10 +3850,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P22" s="5">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" s="5">
         <v>10</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="AB22" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:28">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -478,9 +478,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="34">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -556,6 +557,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2037,7 +2039,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3888,12 +3890,13 @@
       <c r="Z22" s="5">
         <v>10</v>
       </c>
-      <c r="AA22" s="5">
-        <v>68</v>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="AB22" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3996,6 +3999,7 @@
     <hyperlink ref="I3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-1440" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2038,22 +2038,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="12" max="12" width="1.5" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
     <col min="15" max="16" width="6" customWidth="1"/>
@@ -2064,7 +2065,10 @@
     <col min="21" max="21" width="10.1640625" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="24" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="3.83203125" customWidth="1"/>
+    <col min="26" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" customWidth="1"/>
     <col min="28" max="28" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -3999,7 +4003,6 @@
     <hyperlink ref="I3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>https://github.com/A01172971/administracion_projecto</t>
+  </si>
+  <si>
+    <t>Ricardo Alonso Aguayo</t>
+  </si>
+  <si>
+    <t>ricardo</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2045,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2047,7 +2053,7 @@
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
@@ -3986,6 +3992,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24">
+        <v>8103</v>
+      </c>
+    </row>
     <row r="25" spans="1:28">
       <c r="B25" s="1" t="s">
         <v>67</v>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>ricardo</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Api</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +478,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -520,7 +538,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,6 +547,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2042,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2054,99 +2074,105 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" customWidth="1"/>
-    <col min="12" max="12" width="1.5" customWidth="1"/>
-    <col min="13" max="13" width="3.83203125" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" customWidth="1"/>
-    <col min="22" max="22" width="4" customWidth="1"/>
-    <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="3.83203125" customWidth="1"/>
-    <col min="26" max="26" width="1.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="4"/>
+    <col min="6" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="13" width="1.5" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="3.83203125" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="3.83203125" customWidth="1"/>
+    <col min="27" max="27" width="1.6640625" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>93</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>94</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>97</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>96</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>99</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2165,18 +2191,19 @@
       <c r="F2">
         <v>8080</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <f>F2+30</f>
+        <v>8110</v>
+      </c>
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
@@ -2190,19 +2217,19 @@
         <v>1</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
       <c r="Q2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>10</v>
@@ -2214,27 +2241,30 @@
         <v>10</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X2">
         <v>5</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z2">
         <v>10</v>
       </c>
       <c r="AA2">
-        <f>SUM(P2:Z2)*0.8</f>
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <f>SUM(Q2:AA2)*0.8</f>
         <v>72</v>
       </c>
-      <c r="AB2" s="4">
-        <f>AA2+O2</f>
+      <c r="AC2" s="4">
+        <f>AB2+P2</f>
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2254,18 +2284,19 @@
         <f>F2+1</f>
         <v>8081</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3">
+        <f>G2+1</f>
+        <v>8111</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -2276,22 +2307,22 @@
         <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16</v>
       </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
       <c r="Q3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R3">
         <v>5</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>10</v>
@@ -2315,15 +2346,18 @@
         <v>10</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA23" si="0">SUM(P3:Z3)*0.8</f>
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB23" si="0">SUM(Q3:AA3)*0.8</f>
         <v>80</v>
       </c>
-      <c r="AB3" s="4">
-        <f t="shared" ref="AB3:AB23" si="1">AA3+O3</f>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC23" si="1">AB3+P3</f>
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2340,15 +2374,16 @@
         <v>51</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F23" si="2">F3+1</f>
+        <f t="shared" ref="F4:G23" si="2">F3+1</f>
         <v>8082</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>8112</v>
+      </c>
+      <c r="H4" t="s">
         <v>114</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
@@ -2356,25 +2391,25 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>12</v>
       </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
       <c r="Q4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>10</v>
@@ -2398,15 +2433,18 @@
         <v>10</v>
       </c>
       <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2426,18 +2464,19 @@
         <f t="shared" si="2"/>
         <v>8083</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8113</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -2451,21 +2490,21 @@
         <v>1</v>
       </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
       <c r="Q5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="6">
-        <v>10</v>
-      </c>
-      <c r="T5">
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5" s="6">
         <v>10</v>
       </c>
       <c r="U5">
@@ -2474,10 +2513,10 @@
       <c r="V5">
         <v>10</v>
       </c>
-      <c r="W5" s="6">
-        <v>10</v>
-      </c>
-      <c r="X5">
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5" s="6">
         <v>10</v>
       </c>
       <c r="Y5">
@@ -2487,15 +2526,18 @@
         <v>10</v>
       </c>
       <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2515,18 +2557,19 @@
         <f t="shared" si="2"/>
         <v>8084</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8114</v>
+      </c>
+      <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -2540,19 +2583,19 @@
         <v>1</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>20</v>
       </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
       <c r="Q6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>10</v>
@@ -2576,15 +2619,18 @@
         <v>10</v>
       </c>
       <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2604,12 +2650,13 @@
         <f t="shared" si="2"/>
         <v>8085</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>8115</v>
+      </c>
+      <c r="H7" t="s">
         <v>118</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -2623,21 +2670,21 @@
         <v>1</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>20</v>
       </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
       <c r="Q7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" s="6">
-        <v>10</v>
-      </c>
-      <c r="T7">
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" s="6">
         <v>10</v>
       </c>
       <c r="U7">
@@ -2646,10 +2693,10 @@
       <c r="V7">
         <v>10</v>
       </c>
-      <c r="W7" s="6">
-        <v>10</v>
-      </c>
-      <c r="X7">
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7" s="6">
         <v>10</v>
       </c>
       <c r="Y7">
@@ -2659,15 +2706,18 @@
         <v>10</v>
       </c>
       <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2687,14 +2737,15 @@
         <f t="shared" si="2"/>
         <v>8086</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8116</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8">
-        <v>1</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8">
         <v>1</v>
       </c>
@@ -2708,19 +2759,19 @@
         <v>1</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>20</v>
       </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>10</v>
@@ -2744,15 +2795,18 @@
         <v>10</v>
       </c>
       <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AC8" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2772,12 +2826,13 @@
         <f t="shared" si="2"/>
         <v>8087</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>8117</v>
+      </c>
+      <c r="H9" t="s">
         <v>73</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -2791,19 +2846,19 @@
         <v>1</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
       <c r="Q9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>10</v>
@@ -2827,15 +2882,18 @@
         <v>10</v>
       </c>
       <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AC9" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2855,12 +2913,13 @@
         <f t="shared" si="2"/>
         <v>8088</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>8118</v>
+      </c>
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
@@ -2874,19 +2933,19 @@
         <v>1</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>20</v>
       </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
       <c r="Q10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>10</v>
@@ -2910,15 +2969,18 @@
         <v>10</v>
       </c>
       <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AC10" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2938,12 +3000,13 @@
         <f t="shared" si="2"/>
         <v>8089</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8119</v>
+      </c>
+      <c r="H11" t="s">
         <v>86</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
       <c r="K11">
         <v>1</v>
       </c>
@@ -2954,22 +3017,22 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
       <c r="Q11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2993,15 +3056,18 @@
         <v>10</v>
       </c>
       <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AC11" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3021,12 +3087,13 @@
         <f t="shared" si="2"/>
         <v>8090</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8120</v>
+      </c>
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -3040,19 +3107,19 @@
         <v>1</v>
       </c>
       <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
       <c r="Q12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R12">
         <v>5</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -3064,27 +3131,30 @@
         <v>10</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z12">
         <v>10</v>
       </c>
       <c r="AA12">
-        <f>SUM(P12:Z12)*0.8</f>
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <f>SUM(Q12:AA12)*0.8</f>
         <v>72</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AC12" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3104,12 +3174,13 @@
         <f t="shared" si="2"/>
         <v>8091</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>8121</v>
+      </c>
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -3123,19 +3194,19 @@
         <v>1</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>20</v>
       </c>
-      <c r="P13">
-        <v>10</v>
-      </c>
       <c r="Q13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>10</v>
@@ -3147,27 +3218,30 @@
         <v>10</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z13">
         <v>10</v>
       </c>
       <c r="AA13">
-        <f>SUM(P13:Z13)*0.8</f>
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <f>SUM(Q13:AA13)*0.8</f>
         <v>72</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AC13" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3187,33 +3261,34 @@
         <f t="shared" si="2"/>
         <v>8092</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>8122</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14">
-        <v>0</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
-        <v>10</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R14" s="5">
         <v>5</v>
       </c>
-      <c r="S14" s="7">
-        <v>10</v>
-      </c>
-      <c r="T14" s="5">
+      <c r="S14" s="5">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7">
         <v>10</v>
       </c>
       <c r="U14" s="5">
@@ -3222,10 +3297,10 @@
       <c r="V14" s="5">
         <v>10</v>
       </c>
-      <c r="W14" s="7">
-        <v>10</v>
-      </c>
-      <c r="X14" s="5">
+      <c r="W14" s="5">
+        <v>10</v>
+      </c>
+      <c r="X14" s="7">
         <v>10</v>
       </c>
       <c r="Y14" s="5">
@@ -3234,16 +3309,19 @@
       <c r="Z14" s="5">
         <v>10</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AC14" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3263,12 +3341,13 @@
         <f t="shared" si="2"/>
         <v>8093</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>8123</v>
+      </c>
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
       <c r="K15">
         <v>1</v>
       </c>
@@ -3282,21 +3361,21 @@
         <v>1</v>
       </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>20</v>
       </c>
-      <c r="P15" s="5">
-        <v>10</v>
-      </c>
       <c r="Q15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R15" s="5">
         <v>5</v>
       </c>
-      <c r="S15" s="7">
-        <v>10</v>
-      </c>
-      <c r="T15" s="5">
+      <c r="S15" s="5">
+        <v>5</v>
+      </c>
+      <c r="T15" s="7">
         <v>10</v>
       </c>
       <c r="U15" s="5">
@@ -3305,10 +3384,10 @@
       <c r="V15" s="5">
         <v>10</v>
       </c>
-      <c r="W15" s="7">
-        <v>10</v>
-      </c>
-      <c r="X15" s="5">
+      <c r="W15" s="5">
+        <v>10</v>
+      </c>
+      <c r="X15" s="7">
         <v>10</v>
       </c>
       <c r="Y15" s="5">
@@ -3317,16 +3396,19 @@
       <c r="Z15" s="5">
         <v>10</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AC15" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3346,12 +3428,13 @@
         <f t="shared" si="2"/>
         <v>8094</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>8124</v>
+      </c>
+      <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
       <c r="K16">
         <v>1</v>
       </c>
@@ -3365,19 +3448,19 @@
         <v>1</v>
       </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="P16" s="5">
-        <v>10</v>
-      </c>
       <c r="Q16" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R16" s="5">
         <v>5</v>
       </c>
       <c r="S16" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" s="5">
         <v>10</v>
@@ -3400,16 +3483,19 @@
       <c r="Z16" s="5">
         <v>10</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AC16" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3429,14 +3515,15 @@
         <f t="shared" si="2"/>
         <v>8095</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>8125</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17">
-        <v>1</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="K17">
         <v>1</v>
       </c>
@@ -3450,19 +3537,19 @@
         <v>1</v>
       </c>
       <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>20</v>
       </c>
-      <c r="P17" s="5">
-        <v>10</v>
-      </c>
       <c r="Q17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17" s="5">
         <v>5</v>
       </c>
       <c r="S17" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" s="5">
         <v>10</v>
@@ -3485,16 +3572,19 @@
       <c r="Z17" s="5">
         <v>10</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AC17" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3514,12 +3604,13 @@
         <f t="shared" si="2"/>
         <v>8096</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>8126</v>
+      </c>
+      <c r="H18" t="s">
         <v>83</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18">
         <v>1</v>
       </c>
@@ -3533,19 +3624,19 @@
         <v>1</v>
       </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="P18" s="5">
-        <v>10</v>
-      </c>
       <c r="Q18" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R18" s="5">
         <v>5</v>
       </c>
       <c r="S18" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" s="5">
         <v>10</v>
@@ -3568,16 +3659,19 @@
       <c r="Z18" s="5">
         <v>10</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AC18" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3597,12 +3691,13 @@
         <f t="shared" si="2"/>
         <v>8097</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8127</v>
+      </c>
+      <c r="H19" t="s">
         <v>84</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19">
         <v>1</v>
       </c>
@@ -3616,21 +3711,21 @@
         <v>1</v>
       </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>20</v>
       </c>
-      <c r="P19" s="5">
-        <v>10</v>
-      </c>
       <c r="Q19" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R19" s="5">
         <v>5</v>
       </c>
-      <c r="S19" s="7">
-        <v>10</v>
-      </c>
-      <c r="T19" s="5">
+      <c r="S19" s="5">
+        <v>5</v>
+      </c>
+      <c r="T19" s="7">
         <v>10</v>
       </c>
       <c r="U19" s="5">
@@ -3639,10 +3734,10 @@
       <c r="V19" s="5">
         <v>10</v>
       </c>
-      <c r="W19" s="7">
-        <v>10</v>
-      </c>
-      <c r="X19" s="5">
+      <c r="W19" s="5">
+        <v>10</v>
+      </c>
+      <c r="X19" s="7">
         <v>10</v>
       </c>
       <c r="Y19" s="5">
@@ -3651,16 +3746,19 @@
       <c r="Z19" s="5">
         <v>10</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AC19" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3680,12 +3778,13 @@
         <f t="shared" si="2"/>
         <v>8098</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>8128</v>
+      </c>
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
       <c r="K20">
         <v>1</v>
       </c>
@@ -3699,21 +3798,21 @@
         <v>1</v>
       </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>20</v>
       </c>
-      <c r="P20" s="5">
-        <v>10</v>
-      </c>
       <c r="Q20" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R20" s="5">
         <v>5</v>
       </c>
-      <c r="S20" s="7">
-        <v>10</v>
-      </c>
-      <c r="T20" s="5">
+      <c r="S20" s="5">
+        <v>5</v>
+      </c>
+      <c r="T20" s="7">
         <v>10</v>
       </c>
       <c r="U20" s="5">
@@ -3722,10 +3821,10 @@
       <c r="V20" s="5">
         <v>10</v>
       </c>
-      <c r="W20" s="7">
-        <v>10</v>
-      </c>
-      <c r="X20" s="5">
+      <c r="W20" s="5">
+        <v>10</v>
+      </c>
+      <c r="X20" s="7">
         <v>10</v>
       </c>
       <c r="Y20" s="5">
@@ -3734,16 +3833,19 @@
       <c r="Z20" s="5">
         <v>10</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AC20" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3763,12 +3865,13 @@
         <f t="shared" si="2"/>
         <v>8099</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>8129</v>
+      </c>
+      <c r="H21" t="s">
         <v>79</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
       <c r="K21">
         <v>1</v>
       </c>
@@ -3782,21 +3885,21 @@
         <v>1</v>
       </c>
       <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>20</v>
       </c>
-      <c r="P21" s="5">
-        <v>10</v>
-      </c>
       <c r="Q21" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R21" s="5">
         <v>5</v>
       </c>
-      <c r="S21" s="7">
-        <v>10</v>
-      </c>
-      <c r="T21" s="5">
+      <c r="S21" s="5">
+        <v>5</v>
+      </c>
+      <c r="T21" s="7">
         <v>10</v>
       </c>
       <c r="U21" s="5">
@@ -3805,10 +3908,10 @@
       <c r="V21" s="5">
         <v>10</v>
       </c>
-      <c r="W21" s="7">
-        <v>10</v>
-      </c>
-      <c r="X21" s="5">
+      <c r="W21" s="5">
+        <v>10</v>
+      </c>
+      <c r="X21" s="7">
         <v>10</v>
       </c>
       <c r="Y21" s="5">
@@ -3817,16 +3920,19 @@
       <c r="Z21" s="5">
         <v>10</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AC21" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3846,12 +3952,13 @@
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>8130</v>
+      </c>
+      <c r="H22" t="s">
         <v>81</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
       <c r="K22">
         <v>1</v>
       </c>
@@ -3864,20 +3971,20 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
         <v>20</v>
       </c>
-      <c r="P22" s="5">
-        <v>10</v>
-      </c>
       <c r="Q22" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R22" s="5">
         <v>5</v>
       </c>
       <c r="S22" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" s="5">
         <v>10</v>
@@ -3889,27 +3996,30 @@
         <v>10</v>
       </c>
       <c r="W22" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X22" s="5">
         <v>5</v>
       </c>
       <c r="Y22" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="5">
         <v>10</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AC22" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3929,12 +4039,13 @@
         <f t="shared" si="2"/>
         <v>8101</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>8131</v>
+      </c>
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
       <c r="K23">
         <v>1</v>
       </c>
@@ -3948,19 +4059,19 @@
         <v>1</v>
       </c>
       <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>20</v>
       </c>
-      <c r="P23" s="5">
-        <v>10</v>
-      </c>
       <c r="Q23" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R23" s="5">
         <v>5</v>
       </c>
       <c r="S23" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" s="5">
         <v>10</v>
@@ -3983,16 +4094,19 @@
       <c r="Z23" s="5">
         <v>10</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AC23" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4005,22 +4119,30 @@
       <c r="F24">
         <v>8103</v>
       </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G25" si="3">G23+1</f>
+        <v>8132</v>
+      </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F25">
         <v>8102</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>8133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I3" r:id="rId5"/>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId6"/>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-1260" yWindow="1440" windowWidth="31360" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Parcial1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -400,6 +401,30 @@
   </si>
   <si>
     <t>Api</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>python/flask</t>
+  </si>
+  <si>
+    <t>python/django</t>
+  </si>
+  <si>
+    <t>lab questions</t>
+  </si>
+  <si>
+    <t>docker inegi</t>
+  </si>
+  <si>
+    <t>docker front</t>
+  </si>
+  <si>
+    <t>lab redis</t>
+  </si>
+  <si>
+    <t>Parcial 2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -502,7 +533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,8 +568,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,8 +583,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="37">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -584,6 +619,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,13 +633,1162 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="190500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="571500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="762000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="952500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 6" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="1143000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 8" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 9" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="1714500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 10" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="1905000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 11" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 12" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="2286000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 13" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="2476500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 14" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="2667000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 15" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 16" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="3048000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 17" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="3238500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 18" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="3429000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 19" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="3619500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 20" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="3810000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 21" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="4000500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 22" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4737100" y="4191000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -647,13 +1834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -699,13 +1886,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -751,13 +1938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -803,13 +1990,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -855,13 +2042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -907,13 +2094,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -959,13 +2146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1011,13 +2198,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1063,13 +2250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1115,13 +2302,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1167,13 +2354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1219,13 +2406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1271,13 +2458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1323,13 +2510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1375,13 +2562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1427,13 +2614,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1479,13 +2666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1531,13 +2718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1583,13 +2770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1635,13 +2822,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1687,13 +2874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2062,28 +3249,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" customWidth="1"/>
-    <col min="13" max="13" width="1.5" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="16" max="17" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6" style="10" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="3.6640625" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
@@ -2093,86 +3282,79 @@
     <col min="24" max="24" width="10" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
     <col min="26" max="26" width="3.83203125" customWidth="1"/>
-    <col min="27" max="27" width="1.6640625" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="27" max="27" width="3.6640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="E1" t="s">
+    <row r="1" spans="1:28">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="N1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>2</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+      <c r="V1">
+        <v>6</v>
+      </c>
+      <c r="W1">
+        <v>7</v>
+      </c>
+      <c r="X1">
+        <v>8</v>
+      </c>
+      <c r="Y1">
+        <v>9</v>
+      </c>
+      <c r="Z1">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>109</v>
+      <c r="AB1" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2185,86 +3367,83 @@
       <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8080</v>
       </c>
-      <c r="G2">
-        <f>F2+30</f>
+      <c r="H2">
+        <f>G2+30</f>
         <v>8110</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>10</v>
-      </c>
-      <c r="AA2">
-        <v>10</v>
-      </c>
-      <c r="AB2">
-        <f>SUM(Q2:AA2)*0.8</f>
-        <v>72</v>
-      </c>
-      <c r="AC2" s="4">
-        <f>AB2+P2</f>
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>SUM(Q2:Z2)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>AA2+P2</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2277,87 +3456,84 @@
       <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F3">
-        <f>F2+1</f>
-        <v>8081</v>
       </c>
       <c r="G3">
         <f>G2+1</f>
+        <v>8081</v>
+      </c>
+      <c r="H3">
+        <f>H2+1</f>
         <v>8111</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>16</v>
+      <c r="P3" s="10">
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>10</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB23" si="0">SUM(Q3:AA3)*0.8</f>
-        <v>80</v>
-      </c>
-      <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC23" si="1">AB3+P3</f>
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10">
+        <f>SUM(Q3:Z3)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>AA3+P3</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2370,28 +3546,26 @@
       <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:G23" si="2">F3+1</f>
+      <c r="G4">
+        <f t="shared" ref="G4:H19" si="0">G3+1</f>
         <v>8082</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>8112</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>114</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2399,52 +3573,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>12</v>
+      <c r="P4" s="10">
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC4" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <f>SUM(Q4:Z4)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>AA4+P4</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2457,87 +3628,84 @@
       <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>8083</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>8113</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="X5" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>10</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <f>SUM(Q5:Z5)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>AA5+P5</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2550,87 +3718,84 @@
       <c r="D6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>8084</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>8114</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>10</v>
-      </c>
-      <c r="AA6">
-        <v>10</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC6" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10">
+        <f>SUM(Q6:Z6)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>AA6+P6</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2643,81 +3808,76 @@
       <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>8085</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>8115</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>118</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="X7" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>10</v>
-      </c>
-      <c r="AA7">
-        <v>10</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC7" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <f>SUM(Q7:Z7)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>AA7+P7</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2730,83 +3890,78 @@
       <c r="D8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>8086</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>8116</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8">
-        <v>1</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
-        <v>10</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC8" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <f>SUM(Q8:Z8)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>AA8+P8</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2819,81 +3974,76 @@
       <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>8087</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>8117</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>10</v>
-      </c>
-      <c r="AA9">
-        <v>10</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC9" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <f>SUM(Q9:Z9)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>AA9+P9</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2906,81 +4056,76 @@
       <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>8088</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>8118</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>10</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
+        <f>SUM(Q10:Z10)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>AA10+P10</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2993,81 +4138,76 @@
       <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
         <v>8089</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>8119</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>20</v>
+      <c r="P11" s="10">
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>10</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC11" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <f>SUM(Q11:Z11)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>AA11+P11</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3080,81 +4220,76 @@
       <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
         <v>8090</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>8120</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>10</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <f>SUM(Q12:AA12)*0.8</f>
-        <v>72</v>
-      </c>
-      <c r="AC12" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10">
+        <f>SUM(Q12:Z12)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>AA12+P12</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3167,81 +4302,76 @@
       <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
         <v>8091</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>8121</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>87</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>10</v>
-      </c>
-      <c r="AA13">
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <f>SUM(Q13:AA13)*0.8</f>
-        <v>72</v>
-      </c>
-      <c r="AC13" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="10">
+        <f>SUM(Q13:Z13)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>AA13+P13</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3254,74 +4384,78 @@
       <c r="D14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>8092</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>8122</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14">
-        <v>0</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
       <c r="Q14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
-        <v>5</v>
-      </c>
-      <c r="T14" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>10</v>
-      </c>
-      <c r="X14" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="10">
+        <f>SUM(Q14:Z14)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>AA14+P14</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3334,81 +4468,76 @@
       <c r="D15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>8093</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>8123</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>77</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
-        <v>5</v>
-      </c>
-      <c r="T15" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>10</v>
-      </c>
-      <c r="X15" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10">
+        <f>SUM(Q15:Z15)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>AA15+P15</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3421,81 +4550,76 @@
       <c r="D16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
+      <c r="G16">
+        <f t="shared" si="0"/>
         <v>8094</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>8124</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>72</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC16" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10">
+        <f>SUM(Q16:Z16)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>AA16+P16</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3508,83 +4632,78 @@
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
+      <c r="G17">
+        <f t="shared" si="0"/>
         <v>8095</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>8125</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17">
-        <v>1</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC17" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="10">
+        <f>SUM(Q17:Z17)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>AA17+P17</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3597,81 +4716,76 @@
       <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
+      <c r="G18">
+        <f t="shared" si="0"/>
         <v>8096</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>8126</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>83</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC18" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="10">
+        <f>SUM(Q18:Z18)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <f>AA18+P18</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3684,81 +4798,76 @@
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
+      <c r="G19">
+        <f t="shared" si="0"/>
         <v>8097</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>8127</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>84</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>5</v>
-      </c>
-      <c r="T19" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>10</v>
-      </c>
-      <c r="X19" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
       </c>
       <c r="Y19" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC19" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="10">
+        <f>SUM(Q19:Z19)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <f>AA19+P19</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3771,81 +4880,76 @@
       <c r="D20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
+      <c r="G20">
+        <f t="shared" ref="G20:H25" si="1">G19+1</f>
         <v>8098</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
+      <c r="H20">
+        <f t="shared" si="1"/>
         <v>8128</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>76</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R20" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>5</v>
-      </c>
-      <c r="T20" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>10</v>
-      </c>
-      <c r="X20" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
       </c>
       <c r="Y20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC20" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10">
+        <f>SUM(Q20:Z20)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <f>AA20+P20</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3858,81 +4962,76 @@
       <c r="D21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
+      <c r="G21">
+        <f t="shared" si="1"/>
         <v>8099</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
+      <c r="H21">
+        <f t="shared" si="1"/>
         <v>8129</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
       </c>
       <c r="Q21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>5</v>
-      </c>
-      <c r="T21" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W21" s="5">
-        <v>10</v>
-      </c>
-      <c r="X21" s="7">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
       </c>
       <c r="Y21" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC21" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10">
+        <f>SUM(Q21:Z21)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <f>AA21+P21</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3945,81 +5044,76 @@
       <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
+      <c r="H22">
+        <f t="shared" si="1"/>
         <v>8130</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>81</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
       </c>
       <c r="Q22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="AC22" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="10">
+        <f>SUM(Q22:Z22)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <f>AA22+P22</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4032,117 +5126,2239 @@
       <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>8101</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
+      <c r="H23">
+        <f t="shared" si="1"/>
         <v>8131</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>82</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC23" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="10">
+        <f>SUM(Q23:Z23)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4">
+        <f>AA23+P23</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8103</v>
       </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G25" si="3">G23+1</f>
+      <c r="H24">
+        <f t="shared" si="1"/>
         <v>8132</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:28">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8102</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
+      <c r="H25">
+        <f t="shared" si="1"/>
         <v>8133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J3" r:id="rId5"/>
+    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K3" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId6"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="1.5" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="3.83203125" customWidth="1"/>
+    <col min="28" max="28" width="1.6640625" customWidth="1"/>
+    <col min="29" max="29" width="3.6640625" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>8080</v>
+      </c>
+      <c r="H2">
+        <f>G2+30</f>
+        <v>8110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <f>SUM(R2:AB2)*0.8</f>
+        <v>72</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>AC2+Q2</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <f>G2+1</f>
+        <v>8081</v>
+      </c>
+      <c r="H3">
+        <f>H2+1</f>
+        <v>8111</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC23" si="0">SUM(R3:AB3)*0.8</f>
+        <v>80</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD23" si="1">AC3+Q3</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:H23" si="2">G3+1</f>
+        <v>8082</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>8112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8083</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>8113</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8084</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>8114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>8085</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>8115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8086</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>8116</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>8087</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>8117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>8088</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>8118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8089</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>8119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8090</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>8120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <f>SUM(R12:AB12)*0.8</f>
+        <v>72</v>
+      </c>
+      <c r="AD12" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>8091</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>8121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <f>SUM(R13:AB13)*0.8</f>
+        <v>72</v>
+      </c>
+      <c r="AD13" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>8092</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>8122</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>10</v>
+      </c>
+      <c r="S14" s="5">
+        <v>5</v>
+      </c>
+      <c r="T14" s="5">
+        <v>5</v>
+      </c>
+      <c r="U14" s="7">
+        <v>10</v>
+      </c>
+      <c r="V14" s="5">
+        <v>10</v>
+      </c>
+      <c r="W14" s="5">
+        <v>10</v>
+      </c>
+      <c r="X14" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>8093</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>8123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15" s="5">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5">
+        <v>5</v>
+      </c>
+      <c r="T15" s="5">
+        <v>5</v>
+      </c>
+      <c r="U15" s="7">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5">
+        <v>10</v>
+      </c>
+      <c r="W15" s="5">
+        <v>10</v>
+      </c>
+      <c r="X15" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>8094</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>8124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16" s="5">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5">
+        <v>5</v>
+      </c>
+      <c r="T16" s="5">
+        <v>5</v>
+      </c>
+      <c r="U16" s="5">
+        <v>10</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10</v>
+      </c>
+      <c r="W16" s="5">
+        <v>10</v>
+      </c>
+      <c r="X16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>8095</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>8125</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5">
+        <v>5</v>
+      </c>
+      <c r="T17" s="5">
+        <v>5</v>
+      </c>
+      <c r="U17" s="5">
+        <v>10</v>
+      </c>
+      <c r="V17" s="5">
+        <v>10</v>
+      </c>
+      <c r="W17" s="5">
+        <v>10</v>
+      </c>
+      <c r="X17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>8096</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>8126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18" s="5">
+        <v>10</v>
+      </c>
+      <c r="S18" s="5">
+        <v>5</v>
+      </c>
+      <c r="T18" s="5">
+        <v>5</v>
+      </c>
+      <c r="U18" s="5">
+        <v>10</v>
+      </c>
+      <c r="V18" s="5">
+        <v>10</v>
+      </c>
+      <c r="W18" s="5">
+        <v>10</v>
+      </c>
+      <c r="X18" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8097</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>8127</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19" s="5">
+        <v>10</v>
+      </c>
+      <c r="S19" s="5">
+        <v>5</v>
+      </c>
+      <c r="T19" s="5">
+        <v>5</v>
+      </c>
+      <c r="U19" s="7">
+        <v>10</v>
+      </c>
+      <c r="V19" s="5">
+        <v>10</v>
+      </c>
+      <c r="W19" s="5">
+        <v>10</v>
+      </c>
+      <c r="X19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>8098</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>8128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20" s="5">
+        <v>10</v>
+      </c>
+      <c r="S20" s="5">
+        <v>5</v>
+      </c>
+      <c r="T20" s="5">
+        <v>5</v>
+      </c>
+      <c r="U20" s="7">
+        <v>10</v>
+      </c>
+      <c r="V20" s="5">
+        <v>10</v>
+      </c>
+      <c r="W20" s="5">
+        <v>10</v>
+      </c>
+      <c r="X20" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>8099</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>8129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21" s="5">
+        <v>10</v>
+      </c>
+      <c r="S21" s="5">
+        <v>5</v>
+      </c>
+      <c r="T21" s="5">
+        <v>5</v>
+      </c>
+      <c r="U21" s="7">
+        <v>10</v>
+      </c>
+      <c r="V21" s="5">
+        <v>10</v>
+      </c>
+      <c r="W21" s="5">
+        <v>10</v>
+      </c>
+      <c r="X21" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>8130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>20</v>
+      </c>
+      <c r="R22" s="5">
+        <v>10</v>
+      </c>
+      <c r="S22" s="5">
+        <v>5</v>
+      </c>
+      <c r="T22" s="5">
+        <v>5</v>
+      </c>
+      <c r="U22" s="5">
+        <v>10</v>
+      </c>
+      <c r="V22" s="5">
+        <v>10</v>
+      </c>
+      <c r="W22" s="5">
+        <v>10</v>
+      </c>
+      <c r="X22" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>8101</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>8131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23" s="5">
+        <v>10</v>
+      </c>
+      <c r="S23" s="5">
+        <v>5</v>
+      </c>
+      <c r="T23" s="5">
+        <v>5</v>
+      </c>
+      <c r="U23" s="5">
+        <v>10</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5">
+        <v>10</v>
+      </c>
+      <c r="X23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24">
+        <v>8103</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H25" si="3">H23+1</f>
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>8102</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>8133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId6"/>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="1440" windowWidth="31360" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t>Parcial 2</t>
+  </si>
+  <si>
+    <t>https://github.com/blackhawk42/administracion</t>
+  </si>
+  <si>
+    <t>node-redis</t>
+  </si>
+  <si>
+    <t>python-redis</t>
   </si>
 </sst>
 </file>
@@ -533,9 +542,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -585,7 +595,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="38">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -622,6 +632,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,8 +650,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -691,8 +702,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -743,8 +754,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -795,8 +806,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -847,8 +858,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -899,8 +910,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -951,8 +962,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1003,8 +1014,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1055,8 +1066,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1107,8 +1118,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1159,8 +1170,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1211,8 +1222,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1263,8 +1274,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1315,8 +1326,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1367,8 +1378,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1419,8 +1430,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1471,8 +1482,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1523,8 +1534,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1575,8 +1586,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1627,8 +1638,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1679,8 +1690,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1731,8 +1742,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3249,44 +3260,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="6" style="10" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="3.83203125" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" customWidth="1"/>
-    <col min="23" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="3.83203125" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" style="10" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="4"/>
+    <col min="15" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6" style="10" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="5" customWidth="1"/>
+    <col min="28" max="28" width="3.83203125" customWidth="1"/>
+    <col min="29" max="29" width="3.6640625" style="10" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="F1" t="s">
         <v>44</v>
       </c>
@@ -3314,47 +3325,53 @@
       <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
         <v>2</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>3</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>4</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>5</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>6</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>7</v>
       </c>
-      <c r="X1">
+      <c r="Z1">
         <v>8</v>
       </c>
-      <c r="Y1">
+      <c r="AA1">
         <v>9</v>
       </c>
-      <c r="Z1">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3390,24 +3407,24 @@
         <v>112</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="10">
         <v>0</v>
       </c>
       <c r="S2">
@@ -3434,16 +3451,22 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2" s="10">
-        <f>SUM(Q2:Z2)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <f>AA2+P2</f>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10">
+        <f t="shared" ref="AC2:AC23" si="0">SUM(S2:AB2)*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AD23" si="1">AC2+R2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3491,13 +3514,13 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="10">
         <v>0</v>
       </c>
       <c r="S3">
@@ -3524,16 +3547,22 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" s="10">
-        <f>SUM(Q3:Z3)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>AA3+P3</f>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3551,71 +3580,77 @@
         <v>51</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:H19" si="0">G3+1</f>
+        <f t="shared" ref="G4:H19" si="2">G3+1</f>
         <v>8082</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>8112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
         <f t="shared" si="0"/>
-        <v>8112</v>
-      </c>
-      <c r="I4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10">
-        <f>SUM(Q4:Z4)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>AA4+P4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3635,11 +3670,11 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8083</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8113</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3663,13 +3698,13 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="10">
         <v>0</v>
       </c>
       <c r="S5">
@@ -3696,16 +3731,22 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5" s="10">
-        <f>SUM(Q5:Z5)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4">
-        <f>AA5+P5</f>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3725,11 +3766,11 @@
         <v>52</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8084</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8114</v>
       </c>
       <c r="I6" t="s">
@@ -3753,13 +3794,13 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="10">
         <v>0</v>
       </c>
       <c r="S6">
@@ -3786,16 +3827,22 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6" s="10">
-        <f>SUM(Q6:Z6)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <f>AA6+P6</f>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3813,11 +3860,11 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8085</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8115</v>
       </c>
       <c r="I7" t="s">
@@ -3835,13 +3882,13 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="10">
         <v>0</v>
       </c>
       <c r="S7">
@@ -3868,16 +3915,22 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7" s="10">
-        <f>SUM(Q7:Z7)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>AA7+P7</f>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3895,11 +3948,11 @@
         <v>54</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8086</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8116</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -3919,13 +3972,13 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="10">
         <v>0</v>
       </c>
       <c r="S8">
@@ -3952,16 +4005,22 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AA8" s="10">
-        <f>SUM(Q8:Z8)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4">
-        <f>AA8+P8</f>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3979,11 +4038,11 @@
         <v>55</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8087</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8117</v>
       </c>
       <c r="I9" t="s">
@@ -4001,13 +4060,13 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="10">
         <v>0</v>
       </c>
       <c r="S9">
@@ -4034,16 +4093,22 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9" s="10">
-        <f>SUM(Q9:Z9)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <f>AA9+P9</f>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4061,11 +4126,11 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8088</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8118</v>
       </c>
       <c r="I10" t="s">
@@ -4083,13 +4148,13 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="10">
         <v>0</v>
       </c>
       <c r="S10">
@@ -4116,16 +4181,22 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10" s="10">
-        <f>SUM(Q10:Z10)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4">
-        <f>AA10+P10</f>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4143,11 +4214,11 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8089</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8119</v>
       </c>
       <c r="I11" t="s">
@@ -4165,13 +4236,13 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="10">
         <v>0</v>
       </c>
       <c r="S11">
@@ -4198,16 +4269,22 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" s="10">
-        <f>SUM(Q11:Z11)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="4">
-        <f>AA11+P11</f>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4225,11 +4302,11 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8090</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8120</v>
       </c>
       <c r="I12" t="s">
@@ -4247,13 +4324,13 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="10">
         <v>0</v>
       </c>
       <c r="S12">
@@ -4280,16 +4357,22 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12" s="10">
-        <f>SUM(Q12:Z12)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <f>AA12+P12</f>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4307,11 +4390,11 @@
         <v>48</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8091</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8121</v>
       </c>
       <c r="I13" t="s">
@@ -4329,13 +4412,13 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="10">
         <v>0</v>
       </c>
       <c r="S13">
@@ -4362,16 +4445,22 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" s="10">
-        <f>SUM(Q13:Z13)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
-        <f>AA13+P13</f>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4389,11 +4478,11 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8092</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8122</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -4413,13 +4502,13 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
         <v>0</v>
       </c>
       <c r="S14" s="5">
@@ -4446,16 +4535,22 @@
       <c r="Z14" s="5">
         <v>0</v>
       </c>
-      <c r="AA14" s="10">
-        <f>SUM(Q14:Z14)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="4">
-        <f>AA14+P14</f>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4473,11 +4568,11 @@
         <v>60</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8093</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8123</v>
       </c>
       <c r="I15" t="s">
@@ -4495,13 +4590,13 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
         <v>0</v>
       </c>
       <c r="S15" s="5">
@@ -4528,16 +4623,22 @@
       <c r="Z15" s="5">
         <v>0</v>
       </c>
-      <c r="AA15" s="10">
-        <f>SUM(Q15:Z15)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="4">
-        <f>AA15+P15</f>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4555,11 +4656,11 @@
         <v>61</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8094</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8124</v>
       </c>
       <c r="I16" t="s">
@@ -4577,13 +4678,13 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
         <v>0</v>
       </c>
       <c r="S16" s="5">
@@ -4610,16 +4711,22 @@
       <c r="Z16" s="5">
         <v>0</v>
       </c>
-      <c r="AA16" s="10">
-        <f>SUM(Q16:Z16)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="4">
-        <f>AA16+P16</f>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4637,11 +4744,11 @@
         <v>62</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8095</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8125</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4661,13 +4768,13 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
         <v>0</v>
       </c>
       <c r="S17" s="5">
@@ -4694,16 +4801,22 @@
       <c r="Z17" s="5">
         <v>0</v>
       </c>
-      <c r="AA17" s="10">
-        <f>SUM(Q17:Z17)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="4">
-        <f>AA17+P17</f>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4721,11 +4834,11 @@
         <v>63</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8096</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8126</v>
       </c>
       <c r="I18" t="s">
@@ -4743,13 +4856,13 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
         <v>0</v>
       </c>
       <c r="S18" s="5">
@@ -4776,16 +4889,22 @@
       <c r="Z18" s="5">
         <v>0</v>
       </c>
-      <c r="AA18" s="10">
-        <f>SUM(Q18:Z18)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="4">
-        <f>AA18+P18</f>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4803,11 +4922,11 @@
         <v>64</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8097</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8127</v>
       </c>
       <c r="I19" t="s">
@@ -4825,13 +4944,13 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
         <v>0</v>
       </c>
       <c r="S19" s="5">
@@ -4858,16 +4977,22 @@
       <c r="Z19" s="5">
         <v>0</v>
       </c>
-      <c r="AA19" s="10">
-        <f>SUM(Q19:Z19)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="4">
-        <f>AA19+P19</f>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4885,11 +5010,11 @@
         <v>65</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:H25" si="1">G19+1</f>
+        <f t="shared" ref="G20:H25" si="3">G19+1</f>
         <v>8098</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8128</v>
       </c>
       <c r="I20" t="s">
@@ -4907,13 +5032,13 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
         <v>0</v>
       </c>
       <c r="S20" s="5">
@@ -4940,16 +5065,22 @@
       <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AA20" s="10">
-        <f>SUM(Q20:Z20)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="4">
-        <f>AA20+P20</f>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4967,11 +5098,11 @@
         <v>49</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8099</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8129</v>
       </c>
       <c r="I21" t="s">
@@ -4989,13 +5120,13 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10">
         <v>0</v>
       </c>
       <c r="S21" s="5">
@@ -5022,16 +5153,22 @@
       <c r="Z21" s="5">
         <v>0</v>
       </c>
-      <c r="AA21" s="10">
-        <f>SUM(Q21:Z21)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4">
-        <f>AA21+P21</f>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5049,11 +5186,11 @@
         <v>50</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8100</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8130</v>
       </c>
       <c r="I22" t="s">
@@ -5071,13 +5208,13 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
         <v>0</v>
       </c>
       <c r="S22" s="5">
@@ -5104,16 +5241,22 @@
       <c r="Z22" s="5">
         <v>0</v>
       </c>
-      <c r="AA22" s="10">
-        <f>SUM(Q22:Z22)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
-        <f>AA22+P22</f>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5131,11 +5274,11 @@
         <v>66</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8101</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8131</v>
       </c>
       <c r="I23" t="s">
@@ -5153,13 +5296,13 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
         <v>0</v>
       </c>
       <c r="S23" s="5">
@@ -5186,16 +5329,22 @@
       <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AA23" s="10">
-        <f>SUM(Q23:Z23)*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="4">
-        <f>AA23+P23</f>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5209,11 +5358,11 @@
         <v>8103</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8132</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
@@ -5221,7 +5370,7 @@
         <v>8102</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8133</v>
       </c>
     </row>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -421,9 +421,6 @@
     <t>docker front</t>
   </si>
   <si>
-    <t>lab redis</t>
-  </si>
-  <si>
     <t>Parcial 2</t>
   </si>
   <si>
@@ -434,6 +431,12 @@
   </si>
   <si>
     <t>python-redis</t>
+  </si>
+  <si>
+    <t>lab springboot-redis</t>
+  </si>
+  <si>
+    <t>https://github.com/AngelV23/AdmonIngSoft</t>
   </si>
 </sst>
 </file>
@@ -3263,7 +3266,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3323,13 +3326,13 @@
         <v>132</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
         <v>136</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>105</v>
@@ -3368,7 +3371,7 @@
         <v>106</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -3419,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="10">
         <v>0</v>
@@ -3588,7 +3591,7 @@
         <v>8112</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3603,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="10">
         <v>0</v>
@@ -3690,19 +3693,19 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="10">
         <v>0</v>
@@ -3783,16 +3786,16 @@
         <v>108</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3871,22 +3874,22 @@
         <v>118</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="10">
         <v>0</v>
@@ -3970,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4052,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="10">
         <v>0</v>
@@ -4137,22 +4140,22 @@
         <v>74</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="10">
         <v>0</v>
@@ -4225,22 +4228,22 @@
         <v>86</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="10">
         <v>0</v>
@@ -4313,22 +4316,22 @@
         <v>85</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="10">
         <v>0</v>
@@ -4486,7 +4489,7 @@
         <v>8122</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4579,22 +4582,22 @@
         <v>77</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="10">
         <v>0</v>
@@ -4667,22 +4670,22 @@
         <v>72</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="10">
         <v>0</v>
@@ -4760,19 +4763,19 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="10">
         <v>0</v>
@@ -4845,7 +4848,7 @@
         <v>83</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -4933,22 +4936,22 @@
         <v>84</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="10">
         <v>0</v>
@@ -5021,22 +5024,22 @@
         <v>76</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="10">
         <v>0</v>
@@ -5109,22 +5112,22 @@
         <v>79</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="10">
         <v>0</v>
@@ -5200,19 +5203,19 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="10">
         <v>0</v>
@@ -5285,7 +5288,7 @@
         <v>82</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -5294,13 +5297,13 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="10">
         <v>0</v>
@@ -5383,7 +5386,6 @@
     <hyperlink ref="K3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="149">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -415,12 +415,6 @@
     <t>lab questions</t>
   </si>
   <si>
-    <t>docker inegi</t>
-  </si>
-  <si>
-    <t>docker front</t>
-  </si>
-  <si>
     <t>Parcial 2</t>
   </si>
   <si>
@@ -437,6 +431,42 @@
   </si>
   <si>
     <t>https://github.com/AngelV23/AdmonIngSoft</t>
+  </si>
+  <si>
+    <t>kanban</t>
+  </si>
+  <si>
+    <t>git banching</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>front-api</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>tdd</t>
+  </si>
+  <si>
+    <t>docker maps</t>
+  </si>
+  <si>
+    <t>docker api</t>
   </si>
 </sst>
 </file>
@@ -653,8 +683,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -705,8 +735,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -757,8 +787,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -809,8 +839,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -861,8 +891,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -913,8 +943,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -965,8 +995,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1017,8 +1047,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1069,8 +1099,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1121,8 +1151,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1173,8 +1203,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1225,8 +1255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1277,8 +1307,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1329,8 +1359,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1381,8 +1411,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1433,8 +1463,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1485,8 +1515,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1537,8 +1567,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1589,8 +1619,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1641,8 +1671,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1693,8 +1723,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1745,8 +1775,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3265,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3275,24 +3305,25 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="17" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="6" style="10" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="3.83203125" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" customWidth="1"/>
     <col min="24" max="24" width="10.1640625" customWidth="1"/>
-    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
     <col min="28" max="28" width="3.83203125" customWidth="1"/>
@@ -3320,58 +3351,58 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>2</v>
-      </c>
-      <c r="U1">
-        <v>3</v>
-      </c>
-      <c r="V1">
-        <v>4</v>
-      </c>
-      <c r="W1">
-        <v>5</v>
-      </c>
-      <c r="X1">
-        <v>6</v>
-      </c>
-      <c r="Y1">
-        <v>7</v>
-      </c>
-      <c r="Z1">
-        <v>8</v>
-      </c>
-      <c r="AA1">
-        <v>9</v>
-      </c>
-      <c r="AB1">
-        <v>10</v>
+      <c r="S1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>146</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>106</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -3591,7 +3622,7 @@
         <v>8112</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3615,42 +3646,42 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -4052,7 +4083,7 @@
         <v>73</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -4149,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -4489,7 +4520,7 @@
         <v>8122</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4760,7 +4791,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>docker api</t>
+  </si>
+  <si>
+    <t>http://189.193.188.135/</t>
+  </si>
+  <si>
+    <t>http://104.198.244.0:8113/index</t>
   </si>
 </sst>
 </file>
@@ -575,9 +581,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -628,7 +638,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="42">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -666,6 +676,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3295,21 +3309,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
@@ -3317,7 +3331,7 @@
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="6" style="10" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
     <col min="21" max="21" width="6.6640625" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
@@ -3459,45 +3473,46 @@
         <v>1</v>
       </c>
       <c r="R2" s="10">
-        <v>0</v>
+        <f>SUM(L2:Q2)*20/6</f>
+        <v>20</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="10">
         <f t="shared" ref="AC2:AC23" si="0">SUM(S2:AB2)*0.8</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" ref="AD2:AD23" si="1">AC2+R2</f>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -3555,45 +3570,46 @@
         <v>0</v>
       </c>
       <c r="R3" s="10">
+        <f t="shared" ref="R3:R23" si="2">SUM(L3:Q3)*20/6</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -3614,11 +3630,11 @@
         <v>51</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:H19" si="2">G3+1</f>
+        <f t="shared" ref="G4:H19" si="3">G3+1</f>
         <v>8082</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8112</v>
       </c>
       <c r="I4" t="s">
@@ -3643,7 +3659,8 @@
         <v>1</v>
       </c>
       <c r="R4" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -3652,36 +3669,36 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA4">
         <v>10</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -3704,11 +3721,11 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8083</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8113</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3718,10 +3735,10 @@
         <v>121</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -3739,45 +3756,46 @@
         <v>1</v>
       </c>
       <c r="R5" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -3800,11 +3818,11 @@
         <v>52</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8084</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8114</v>
       </c>
       <c r="I6" t="s">
@@ -3829,51 +3847,52 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+      <c r="U6" s="5">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5">
+        <v>10</v>
+      </c>
+      <c r="X6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>10</v>
       </c>
       <c r="AC6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -3894,11 +3913,11 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8085</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8115</v>
       </c>
       <c r="I7" t="s">
@@ -3923,45 +3942,46 @@
         <v>1</v>
       </c>
       <c r="R7" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -3982,11 +4002,11 @@
         <v>54</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8086</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8116</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -4013,45 +4033,46 @@
         <v>0</v>
       </c>
       <c r="R8" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -4072,16 +4093,22 @@
         <v>55</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8087</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8117</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
@@ -4101,45 +4128,46 @@
         <v>1</v>
       </c>
       <c r="R9" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -4160,11 +4188,11 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8088</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8118</v>
       </c>
       <c r="I10" t="s">
@@ -4189,45 +4217,46 @@
         <v>1</v>
       </c>
       <c r="R10" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -4248,11 +4277,11 @@
         <v>57</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8089</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8119</v>
       </c>
       <c r="I11" t="s">
@@ -4277,45 +4306,46 @@
         <v>1</v>
       </c>
       <c r="R11" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -4336,11 +4366,11 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8090</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8120</v>
       </c>
       <c r="I12" t="s">
@@ -4365,45 +4395,46 @@
         <v>1</v>
       </c>
       <c r="R12" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -4424,18 +4455,18 @@
         <v>48</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8091</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8121</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4444,54 +4475,55 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -4512,11 +4544,11 @@
         <v>59</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8092</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8122</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -4543,45 +4575,46 @@
         <v>0</v>
       </c>
       <c r="R14" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>0</v>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>10</v>
       </c>
       <c r="AC14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -4602,11 +4635,11 @@
         <v>60</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8093</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8123</v>
       </c>
       <c r="I15" t="s">
@@ -4631,45 +4664,46 @@
         <v>1</v>
       </c>
       <c r="R15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>10</v>
       </c>
       <c r="AC15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -4690,11 +4724,11 @@
         <v>61</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8094</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8124</v>
       </c>
       <c r="I16" t="s">
@@ -4719,45 +4753,46 @@
         <v>1</v>
       </c>
       <c r="R16" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -4778,11 +4813,11 @@
         <v>62</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8095</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8125</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4809,45 +4844,46 @@
         <v>1</v>
       </c>
       <c r="R17" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -4868,11 +4904,11 @@
         <v>63</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8096</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8126</v>
       </c>
       <c r="I18" t="s">
@@ -4882,60 +4918,61 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -4956,11 +4993,11 @@
         <v>64</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8097</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8127</v>
       </c>
       <c r="I19" t="s">
@@ -4985,45 +5022,46 @@
         <v>1</v>
       </c>
       <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <v>10</v>
       </c>
       <c r="AC19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -5044,11 +5082,11 @@
         <v>65</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:H25" si="3">G19+1</f>
+        <f t="shared" ref="G20:H25" si="4">G19+1</f>
         <v>8098</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8128</v>
       </c>
       <c r="I20" t="s">
@@ -5073,45 +5111,46 @@
         <v>1</v>
       </c>
       <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
       </c>
       <c r="AC20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -5132,11 +5171,11 @@
         <v>49</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8099</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8129</v>
       </c>
       <c r="I21" t="s">
@@ -5161,45 +5200,46 @@
         <v>1</v>
       </c>
       <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
       </c>
       <c r="AC21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -5220,18 +5260,18 @@
         <v>50</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8100</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8130</v>
       </c>
       <c r="I22" t="s">
         <v>81</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -5249,45 +5289,46 @@
         <v>1</v>
       </c>
       <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
       </c>
       <c r="AC22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AD22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -5308,11 +5349,11 @@
         <v>66</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8101</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8131</v>
       </c>
       <c r="I23" t="s">
@@ -5322,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -5337,45 +5378,46 @@
         <v>1</v>
       </c>
       <c r="R23" s="10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -5392,7 +5434,7 @@
         <v>8103</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8132</v>
       </c>
     </row>
@@ -5404,7 +5446,7 @@
         <v>8102</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8133</v>
       </c>
     </row>
@@ -5413,11 +5455,10 @@
     <hyperlink ref="I17" r:id="rId1"/>
     <hyperlink ref="I8" r:id="rId2"/>
     <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K3" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-1540" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
@@ -3310,7 +3310,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3320,25 +3320,25 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="6" style="10" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
     <col min="21" max="21" width="6.6640625" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.1640625" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" customWidth="1"/>
-    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="26" width="3.6640625" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
     <col min="28" max="28" width="3.83203125" customWidth="1"/>
     <col min="29" max="29" width="3.6640625" style="10" customWidth="1"/>
@@ -4015,26 +4015,26 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="10">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="1"/>
-        <v>79.333333333333329</v>
+        <v>92.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:30">

--- a/apis.xlsx
+++ b/apis.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/admproy2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A783B-65B3-CC47-9927-2DB15CD2AA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1540" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 2" sheetId="2" r:id="rId1"/>
     <sheet name="Parcial1" sheetId="1" r:id="rId2"/>
+    <sheet name="Parcial 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="162">
   <si>
     <t>Alarico Mercado Vázquez</t>
   </si>
@@ -473,12 +490,45 @@
   </si>
   <si>
     <t>http://104.198.244.0:8113/index</t>
+  </si>
+  <si>
+    <t>graphql</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>Parcial 3</t>
+  </si>
+  <si>
+    <t>Parcial 1</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>https://github.com/NoWaifuNoLaifu/tareasAdmon</t>
+  </si>
+  <si>
+    <t>lab graphql</t>
+  </si>
+  <si>
+    <t>censos api</t>
+  </si>
+  <si>
+    <t>censos front</t>
+  </si>
+  <si>
+    <t>tensor basics</t>
+  </si>
+  <si>
+    <t>tensor linear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -491,11 +541,13 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0C1C8D"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -528,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +620,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +683,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,53 +695,63 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -706,6 +774,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 1" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -722,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -758,6 +831,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="AutoShape 2" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -774,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -810,6 +888,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 3" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -826,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -862,6 +945,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 4" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -878,7 +966,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -914,6 +1002,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 5" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -930,7 +1023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -966,6 +1059,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="AutoShape 6" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -982,7 +1080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1018,6 +1116,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="AutoShape 7" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1034,7 +1137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1070,6 +1173,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 8" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1086,7 +1194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1122,6 +1230,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 9" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1138,7 +1251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1174,6 +1287,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 10" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1190,7 +1308,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1226,6 +1344,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 11" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1242,7 +1365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1278,6 +1401,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 12" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1294,7 +1422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1330,6 +1458,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 13" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1346,7 +1479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1382,6 +1515,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 14" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1398,7 +1536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1434,6 +1572,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 15" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1450,7 +1593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1486,6 +1629,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="AutoShape 16" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1502,7 +1650,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1538,6 +1686,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="AutoShape 17" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1554,7 +1707,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1590,6 +1743,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="AutoShape 18" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1606,7 +1764,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1642,6 +1800,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="AutoShape 19" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1658,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1694,6 +1857,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="AutoShape 20" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1710,7 +1878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1746,6 +1914,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="AutoShape 21" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1762,7 +1935,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1798,6 +1971,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="AutoShape 22" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1814,7 +1992,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1855,6 +2033,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1871,7 +2054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1907,6 +2090,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1026" name="AutoShape 2" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1923,7 +2111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1959,6 +2147,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1027" name="AutoShape 3" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1975,7 +2168,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2011,6 +2204,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1028" name="AutoShape 4" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2027,7 +2225,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2063,6 +2261,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1029" name="AutoShape 5" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2079,7 +2282,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2115,6 +2318,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1030" name="AutoShape 6" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2131,7 +2339,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2167,6 +2375,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1031" name="AutoShape 7" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2183,7 +2396,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2219,6 +2432,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1032" name="AutoShape 8" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2235,7 +2453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2271,6 +2489,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1033" name="AutoShape 9" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2287,7 +2510,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2323,6 +2546,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1034" name="AutoShape 10" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2339,7 +2567,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2375,6 +2603,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1035" name="AutoShape 11" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2391,7 +2624,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2427,6 +2660,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1036" name="AutoShape 12" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2443,7 +2681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2479,6 +2717,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1037" name="AutoShape 13" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2495,7 +2738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2531,6 +2774,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1038" name="AutoShape 14" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2547,7 +2795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2583,6 +2831,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1039" name="AutoShape 15" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2599,7 +2852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2635,6 +2888,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1040" name="AutoShape 16" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2651,7 +2909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2687,6 +2945,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1041" name="AutoShape 17" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2703,7 +2966,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2739,6 +3002,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1042" name="AutoShape 18" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2755,7 +3023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2791,6 +3059,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1043" name="AutoShape 19" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2807,7 +3080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2843,6 +3116,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1044" name="AutoShape 20" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2859,7 +3137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2895,6 +3173,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1045" name="AutoShape 21" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2911,7 +3194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2947,6 +3230,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="1046" name="AutoShape 22" descr="ista del Grupo">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016040000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2963,7 +3251,1266 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D984A-4293-3647-AB70-4C2BF264A413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="203200"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D9F246-45E1-DC40-9D69-83080320E1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="406400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3203B906-CD7D-984F-BD67-AF20E549B21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="609600"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2054D0A3-514A-9445-8ABA-2F89C511516F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="812800"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E069E43F-E03D-CA4B-B61F-E16A1E5B6A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="1016000"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 6" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD24B3A7-FFB6-1346-AF43-FEBCA3EDA9D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="1219200"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1CD08A-2761-0A49-8B5F-D59D5B1EE627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="1422400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 8" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66074E4-2F6C-F14C-BB36-953301BCDE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="1625600"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 9" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B1D94C-260C-3E48-BFBD-5754A34D904E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="1828800"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 10" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8905FB93-747D-5848-9BFB-CF273A67D9AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="2032000"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 11" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E5F74B-7190-5D45-B3DD-0A5E8CAC3B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="2235200"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 12" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE28B4DE-44AB-0941-A2E8-CD9BE1BC1730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="2438400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 13" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A96FE8-26CE-604C-B6F9-7042391A85CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="2641600"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 14" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD397EB6-F714-5843-8BEA-61CFEDDBDD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="2844800"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 15" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9963FF6-9F94-9343-9710-BD0FCA8F4A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="3048000"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 16" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A647A0AC-9293-294D-B953-ACE89CEDEF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="3251200"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 17" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A45398-D86C-1745-8410-4D819AAB5A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="3454400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 18" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2F0810-5510-2E4C-9D8C-6E1F8D82F6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="3657600"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 19" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C976D1D5-2825-3345-B96D-A02874AF2C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="3860800"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 20" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024C6EDA-D761-D343-89E0-EACE2DCBAD9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="4064000"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 21" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F214D50-EF2C-AA47-B928-95974473A18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="4267200"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 22" descr="ista del Grupo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A602C7A9-3050-7E4D-B8E3-43CCE3C1AFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4584700" y="4470400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3306,14 +4853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
@@ -3345,7 +4892,7 @@
     <col min="30" max="30" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>44</v>
       </c>
@@ -3419,7 +4966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3515,7 +5062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3612,7 +5159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3701,7 +5248,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3798,7 +5345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3895,7 +5442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3984,7 +5531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4075,7 +5622,7 @@
         <v>92.666666666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4170,7 +5717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4259,7 +5806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4348,7 +5895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4437,7 +5984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4526,7 +6073,7 @@
         <v>89.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4617,7 +6164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4706,7 +6253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4795,7 +6342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4886,7 +6433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4975,7 +6522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5064,7 +6611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5153,7 +6700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5242,7 +6789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5331,7 +6878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5420,7 +6967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5438,7 +6985,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
@@ -5452,10 +6999,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId5"/>
@@ -5468,14 +7015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
@@ -5507,7 +7054,7 @@
     <col min="30" max="30" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>44</v>
       </c>
@@ -5581,7 +7128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5676,7 +7223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5772,7 +7319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5860,7 +7407,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5956,7 +7503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6052,7 +7599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6140,7 +7687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6230,7 +7777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6318,7 +7865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6406,7 +7953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6494,7 +8041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6582,7 +8129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6670,7 +8217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6751,7 +8298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6839,7 +8386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6927,7 +8474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7017,7 +8564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7105,7 +8652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7193,7 +8740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7281,7 +8828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7369,7 +8916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7457,7 +9004,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7545,7 +9092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7563,7 +9110,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
@@ -7577,11 +9124,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K3" r:id="rId5"/>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId6"/>
@@ -7591,4 +9138,2470 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F58F80-D121-2448-B60F-FF7B1C410964}">
+  <dimension ref="A1:AF25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7.5" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.5" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="5.83203125" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="32" max="32" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>8080</v>
+      </c>
+      <c r="H2">
+        <f>G2+30</f>
+        <v>8110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>SUM(L2:P2)*20/5</f>
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="10">
+        <f t="shared" ref="AB2:AB24" si="0">SUM(R2:AA2)*0.8</f>
+        <v>80</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" ref="AC2:AC23" si="1">AB2+Q2</f>
+        <v>84</v>
+      </c>
+      <c r="AD2">
+        <f>'Parcial 2'!AD2</f>
+        <v>96</v>
+      </c>
+      <c r="AE2">
+        <f>Parcial1!AD2</f>
+        <v>92</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>AVERAGE(AC2:AE2)</f>
+        <v>90.666666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <f>G2+1</f>
+        <v>8081</v>
+      </c>
+      <c r="H3">
+        <f>H2+1</f>
+        <v>8111</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q24" si="2">SUM(L3:P3)*20/5</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AD3">
+        <f>'Parcial 2'!AD3</f>
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <f>Parcial1!AD3</f>
+        <v>96</v>
+      </c>
+      <c r="AF3" s="12">
+        <f t="shared" ref="AF3:AF24" si="3">AVERAGE(AC3:AE3)</f>
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:H19" si="4">G3+1</f>
+        <v>8082</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>8112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="AD4">
+        <f>'Parcial 2'!AD4</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="AE4">
+        <f>Parcial1!AD4</f>
+        <v>92</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" si="3"/>
+        <v>91.1111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>8083</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>8113</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD5">
+        <f>'Parcial 2'!AD5</f>
+        <v>96</v>
+      </c>
+      <c r="AE5">
+        <f>Parcial1!AD5</f>
+        <v>100</v>
+      </c>
+      <c r="AF5" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>8084</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>8114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+      <c r="U6" s="5">
+        <v>10</v>
+      </c>
+      <c r="V6" s="5">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5">
+        <v>10</v>
+      </c>
+      <c r="X6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD6">
+        <f>'Parcial 2'!AD6</f>
+        <v>96</v>
+      </c>
+      <c r="AE6">
+        <f>Parcial1!AD6</f>
+        <v>100</v>
+      </c>
+      <c r="AF6" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>8085</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>8115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AD7">
+        <f>'Parcial 2'!AD7</f>
+        <v>96</v>
+      </c>
+      <c r="AE7">
+        <f>Parcial1!AD7</f>
+        <v>100</v>
+      </c>
+      <c r="AF7" s="12">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>8086</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>8116</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R8" s="5">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5">
+        <v>10</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
+      <c r="U8" s="5">
+        <v>10</v>
+      </c>
+      <c r="V8" s="5">
+        <v>10</v>
+      </c>
+      <c r="W8" s="5">
+        <v>10</v>
+      </c>
+      <c r="X8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="AD8">
+        <f>'Parcial 2'!AD8</f>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="AE8">
+        <f>Parcial1!AD8</f>
+        <v>100</v>
+      </c>
+      <c r="AF8" s="12">
+        <f t="shared" si="3"/>
+        <v>93.555555555555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8087</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>8117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R9" s="5">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5">
+        <v>10</v>
+      </c>
+      <c r="T9" s="5">
+        <v>10</v>
+      </c>
+      <c r="U9" s="5">
+        <v>10</v>
+      </c>
+      <c r="V9" s="5">
+        <v>10</v>
+      </c>
+      <c r="W9" s="5">
+        <v>10</v>
+      </c>
+      <c r="X9" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD9">
+        <f>'Parcial 2'!AD9</f>
+        <v>96</v>
+      </c>
+      <c r="AE9">
+        <f>Parcial1!AD9</f>
+        <v>100</v>
+      </c>
+      <c r="AF9" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>8088</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>8118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R10" s="5">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5">
+        <v>10</v>
+      </c>
+      <c r="U10" s="5">
+        <v>10</v>
+      </c>
+      <c r="V10" s="5">
+        <v>10</v>
+      </c>
+      <c r="W10" s="5">
+        <v>10</v>
+      </c>
+      <c r="X10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <f>'Parcial 2'!AD10</f>
+        <v>96</v>
+      </c>
+      <c r="AE10">
+        <f>Parcial1!AD10</f>
+        <v>100</v>
+      </c>
+      <c r="AF10" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>8089</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>8119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5">
+        <v>10</v>
+      </c>
+      <c r="T11" s="5">
+        <v>10</v>
+      </c>
+      <c r="U11" s="5">
+        <v>10</v>
+      </c>
+      <c r="V11" s="5">
+        <v>10</v>
+      </c>
+      <c r="W11" s="5">
+        <v>10</v>
+      </c>
+      <c r="X11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC11" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <f>'Parcial 2'!AD11</f>
+        <v>96</v>
+      </c>
+      <c r="AE11">
+        <f>Parcial1!AD11</f>
+        <v>100</v>
+      </c>
+      <c r="AF11" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>8090</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>8120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC12" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <f>'Parcial 2'!AD12</f>
+        <v>96</v>
+      </c>
+      <c r="AE12">
+        <f>Parcial1!AD12</f>
+        <v>92</v>
+      </c>
+      <c r="AF12" s="12">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>8091</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>8121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="AD13">
+        <f>'Parcial 2'!AD13</f>
+        <v>89.333333333333329</v>
+      </c>
+      <c r="AE13">
+        <f>Parcial1!AD13</f>
+        <v>92</v>
+      </c>
+      <c r="AF13" s="12">
+        <f t="shared" si="3"/>
+        <v>92.444444444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>8092</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>8122</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AD14">
+        <f>'Parcial 2'!AD14</f>
+        <v>76</v>
+      </c>
+      <c r="AE14">
+        <f>Parcial1!AD14</f>
+        <v>80</v>
+      </c>
+      <c r="AF14" s="12">
+        <f t="shared" si="3"/>
+        <v>78.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>8093</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>8123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD15">
+        <f>'Parcial 2'!AD15</f>
+        <v>96</v>
+      </c>
+      <c r="AE15">
+        <f>Parcial1!AD15</f>
+        <v>100</v>
+      </c>
+      <c r="AF15" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>8094</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>8124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD16">
+        <f>'Parcial 2'!AD16</f>
+        <v>100</v>
+      </c>
+      <c r="AE16">
+        <f>Parcial1!AD16</f>
+        <v>100</v>
+      </c>
+      <c r="AF16" s="12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>8095</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>8125</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="AD17">
+        <f>'Parcial 2'!AD17</f>
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <f>Parcial1!AD17</f>
+        <v>100</v>
+      </c>
+      <c r="AF17" s="12">
+        <f t="shared" si="3"/>
+        <v>97.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>8096</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>8126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD18">
+        <f>'Parcial 2'!AD18</f>
+        <v>100</v>
+      </c>
+      <c r="AE18">
+        <f>Parcial1!AD18</f>
+        <v>100</v>
+      </c>
+      <c r="AF18" s="12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>8097</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>8127</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD19">
+        <f>'Parcial 2'!AD19</f>
+        <v>96</v>
+      </c>
+      <c r="AE19">
+        <f>Parcial1!AD19</f>
+        <v>100</v>
+      </c>
+      <c r="AF19" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:H25" si="5">G19+1</f>
+        <v>8098</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>8128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD20">
+        <f>'Parcial 2'!AD20</f>
+        <v>96</v>
+      </c>
+      <c r="AE20">
+        <f>Parcial1!AD20</f>
+        <v>100</v>
+      </c>
+      <c r="AF20" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>8099</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>8129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD21">
+        <f>'Parcial 2'!AD21</f>
+        <v>96</v>
+      </c>
+      <c r="AE21">
+        <f>Parcial1!AD21</f>
+        <v>100</v>
+      </c>
+      <c r="AF21" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>8100</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>8130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD22">
+        <f>'Parcial 2'!AD22</f>
+        <v>96</v>
+      </c>
+      <c r="AE22">
+        <f>Parcial1!AD22</f>
+        <v>92</v>
+      </c>
+      <c r="AF22" s="12">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>8101</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>8131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AD23">
+        <f>'Parcial 2'!AD23</f>
+        <v>100</v>
+      </c>
+      <c r="AE23">
+        <f>Parcial1!AD23</f>
+        <v>100</v>
+      </c>
+      <c r="AF23" s="12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24">
+        <v>8103</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>8132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>AB24+Q24</f>
+        <v>72</v>
+      </c>
+      <c r="AD24">
+        <f>'Parcial 2'!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f>Parcial1!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="12">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>8102</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>8133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{866B7F81-0CB3-2848-8281-39714A98EF95}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{E9C2268D-A6D1-BC46-AE6D-273AD58473F4}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{3A3A1687-5A5E-6342-9DB4-4F799300197A}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{016FF28B-B4D9-2241-A2D1-0E219F7EA9E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0762E1-D1EB-774D-97E4-80D5A22F1195}">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/apis.xlsx
+++ b/apis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/admproy2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A783B-65B3-CC47-9927-2DB15CD2AA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616EA5B-7940-6E41-BDD7-B4CA495BD5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -852,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -909,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -966,7 +966,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1023,7 +1023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1080,7 +1080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1137,7 +1137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1194,7 +1194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1251,7 +1251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1308,7 +1308,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1365,7 +1365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1422,7 +1422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1479,7 +1479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1536,7 +1536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1593,7 +1593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1650,7 +1650,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1707,7 +1707,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1764,7 +1764,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1821,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1878,7 +1878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1935,7 +1935,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1992,7 +1992,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2054,7 +2054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2111,7 +2111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2168,7 +2168,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2225,7 +2225,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2282,7 +2282,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2339,7 +2339,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2396,7 +2396,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2453,7 +2453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2510,7 +2510,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2567,7 +2567,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2624,7 +2624,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2681,7 +2681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2738,7 +2738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2795,7 +2795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2852,7 +2852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2909,7 +2909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2966,7 +2966,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3023,7 +3023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3080,7 +3080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3137,7 +3137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3194,7 +3194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3251,7 +3251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3313,7 +3313,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3370,7 +3370,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3427,7 +3427,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3484,7 +3484,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3541,7 +3541,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3598,7 +3598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3655,7 +3655,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3712,7 +3712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3769,7 +3769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3826,7 +3826,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3883,7 +3883,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3940,7 +3940,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3997,7 +3997,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4054,7 +4054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4111,7 +4111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4168,7 +4168,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4225,7 +4225,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4282,7 +4282,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4339,7 +4339,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4396,7 +4396,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4453,7 +4453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4510,7 +4510,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9145,7 +9145,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9811,23 +9811,23 @@
         <v>118</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>10</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD7">
         <f>'Parcial 2'!AD7</f>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>98.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
